--- a/Data entry_Becca.xlsx
+++ b/Data entry_Becca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021 winter\psyc 259 data science\Ziyi-workflow-assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB9EE28-E0D5-439A-B9A8-21A42B9D5F36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A000E29-CFCE-4977-A94A-279FB8EF3F9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,497 +27,659 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
-    <t>1c</t>
-  </si>
-  <si>
-    <t>2a</t>
-  </si>
-  <si>
-    <t>2b</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>4a</t>
-  </si>
-  <si>
-    <t>4b</t>
-  </si>
-  <si>
-    <t>4c</t>
-  </si>
-  <si>
-    <t>5a</t>
-  </si>
-  <si>
-    <t>5b</t>
-  </si>
-  <si>
-    <t>7a</t>
-  </si>
-  <si>
-    <t>7b</t>
-  </si>
-  <si>
-    <t>7c</t>
-  </si>
-  <si>
-    <t>8a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8b</t>
-  </si>
-  <si>
-    <t>9a</t>
-  </si>
-  <si>
-    <t>9b</t>
-  </si>
-  <si>
-    <t>9c</t>
-  </si>
-  <si>
-    <t>10b</t>
-  </si>
-  <si>
-    <t>10c</t>
-  </si>
-  <si>
-    <t>11c</t>
-  </si>
-  <si>
-    <t>12c</t>
-  </si>
-  <si>
-    <t>13c</t>
-  </si>
-  <si>
-    <t>14c</t>
-  </si>
-  <si>
-    <t>15c</t>
-  </si>
-  <si>
-    <t>18c</t>
-  </si>
-  <si>
-    <t>19c</t>
-  </si>
-  <si>
-    <t>21c</t>
-  </si>
-  <si>
-    <t>22c</t>
-  </si>
-  <si>
-    <t>23c</t>
-  </si>
-  <si>
-    <t>26c</t>
-  </si>
-  <si>
-    <t>28c</t>
-  </si>
-  <si>
-    <t>29c</t>
-  </si>
-  <si>
-    <t>30c</t>
-  </si>
-  <si>
-    <t>31c</t>
-  </si>
-  <si>
-    <t>32c</t>
-  </si>
-  <si>
-    <t>35c</t>
-  </si>
-  <si>
-    <t>36c</t>
-  </si>
-  <si>
-    <t>37c</t>
-  </si>
-  <si>
-    <t>38c</t>
-  </si>
-  <si>
-    <t>40c</t>
-  </si>
-  <si>
-    <t>44c</t>
-  </si>
-  <si>
-    <t>45c</t>
-  </si>
-  <si>
-    <t>46c</t>
-  </si>
-  <si>
-    <t>47c</t>
-  </si>
-  <si>
-    <t>51c</t>
-  </si>
-  <si>
-    <t>52c</t>
-  </si>
-  <si>
-    <t>53c</t>
-  </si>
-  <si>
-    <t>54c</t>
-  </si>
-  <si>
-    <t>55c</t>
-  </si>
-  <si>
-    <t>56c</t>
-  </si>
-  <si>
-    <t>57c</t>
-  </si>
-  <si>
-    <t>58c</t>
-  </si>
-  <si>
-    <t>60c</t>
-  </si>
-  <si>
-    <t>63c</t>
-  </si>
-  <si>
-    <t>64c</t>
-  </si>
-  <si>
-    <t>66c</t>
-  </si>
-  <si>
-    <t>70c</t>
-  </si>
-  <si>
-    <t>72c</t>
-  </si>
-  <si>
-    <t>73c</t>
-  </si>
-  <si>
-    <t>125c</t>
-  </si>
-  <si>
-    <t>126c</t>
-  </si>
-  <si>
-    <t>128c</t>
-  </si>
-  <si>
-    <t>133c</t>
-  </si>
-  <si>
-    <t>135c</t>
-  </si>
-  <si>
-    <t>136c</t>
-  </si>
-  <si>
-    <t>137c</t>
-  </si>
-  <si>
-    <t>138c</t>
-  </si>
-  <si>
-    <t>139c</t>
-  </si>
-  <si>
-    <t>144c</t>
-  </si>
-  <si>
-    <t>145c</t>
-  </si>
-  <si>
-    <t>147c</t>
-  </si>
-  <si>
-    <t>148c</t>
-  </si>
-  <si>
-    <t>154c</t>
-  </si>
-  <si>
-    <t>157c</t>
-  </si>
-  <si>
-    <t>160c</t>
-  </si>
-  <si>
-    <t>161c</t>
-  </si>
-  <si>
-    <t>163c</t>
-  </si>
-  <si>
-    <t>164c</t>
-  </si>
-  <si>
-    <t>165c</t>
-  </si>
-  <si>
-    <t>166c</t>
-  </si>
-  <si>
-    <t>169c</t>
-  </si>
-  <si>
-    <t>173c</t>
-  </si>
-  <si>
-    <t>174c</t>
-  </si>
-  <si>
-    <t>180c</t>
-  </si>
-  <si>
-    <t>181c</t>
-  </si>
-  <si>
-    <t>182c</t>
-  </si>
-  <si>
-    <t>183c</t>
-  </si>
-  <si>
-    <t>184c</t>
-  </si>
-  <si>
-    <t>185c</t>
-  </si>
-  <si>
-    <t>187c</t>
-  </si>
-  <si>
-    <t>192c</t>
-  </si>
-  <si>
-    <t>199c</t>
-  </si>
-  <si>
-    <t>200c</t>
-  </si>
-  <si>
-    <t>202c</t>
-  </si>
-  <si>
-    <t>204c</t>
-  </si>
-  <si>
-    <t>207c</t>
-  </si>
-  <si>
-    <t>208c</t>
-  </si>
-  <si>
-    <t>210c</t>
-  </si>
-  <si>
-    <t>211c</t>
-  </si>
-  <si>
-    <t>251c</t>
-  </si>
-  <si>
-    <t>252c</t>
-  </si>
-  <si>
-    <t>253c</t>
-  </si>
-  <si>
-    <t>254c</t>
-  </si>
-  <si>
-    <t>255c</t>
-  </si>
-  <si>
-    <t>256c</t>
-  </si>
-  <si>
-    <t>257c</t>
-  </si>
-  <si>
-    <t>258c</t>
-  </si>
-  <si>
-    <t>262c</t>
-  </si>
-  <si>
-    <t>263c</t>
-  </si>
-  <si>
-    <t>265c</t>
-  </si>
-  <si>
-    <t>269c</t>
-  </si>
-  <si>
-    <t>270c</t>
-  </si>
-  <si>
-    <t>271c</t>
-  </si>
-  <si>
-    <t>274c</t>
-  </si>
-  <si>
-    <t>278c</t>
-  </si>
-  <si>
-    <t>280c</t>
-  </si>
-  <si>
-    <t>282c</t>
-  </si>
-  <si>
-    <t>283c</t>
-  </si>
-  <si>
-    <t>284c</t>
-  </si>
-  <si>
-    <t>286c</t>
-  </si>
-  <si>
-    <t>289c</t>
-  </si>
-  <si>
-    <t>292c</t>
-  </si>
-  <si>
-    <t>293c</t>
-  </si>
-  <si>
-    <t>294c</t>
-  </si>
-  <si>
-    <t>295c</t>
-  </si>
-  <si>
-    <t>297c</t>
-  </si>
-  <si>
-    <t>298c</t>
-  </si>
-  <si>
-    <t>299c</t>
-  </si>
-  <si>
-    <t>300c</t>
-  </si>
-  <si>
-    <t>301c</t>
-  </si>
-  <si>
-    <t>303c</t>
-  </si>
-  <si>
-    <t>305c</t>
-  </si>
-  <si>
-    <t>306c</t>
-  </si>
-  <si>
-    <t>309c</t>
-  </si>
-  <si>
-    <t>310c</t>
-  </si>
-  <si>
-    <t>311c</t>
-  </si>
-  <si>
-    <t>312c</t>
-  </si>
-  <si>
-    <t>313c</t>
-  </si>
-  <si>
-    <t>319c</t>
-  </si>
-  <si>
-    <t>362c</t>
-  </si>
-  <si>
-    <t>365c</t>
-  </si>
-  <si>
-    <t>367c</t>
-  </si>
-  <si>
-    <t>358c</t>
-  </si>
-  <si>
-    <t>372c</t>
-  </si>
-  <si>
-    <t>378c</t>
-  </si>
-  <si>
-    <t>380c</t>
-  </si>
-  <si>
-    <t>385c</t>
-  </si>
-  <si>
-    <t>387c</t>
-  </si>
-  <si>
-    <t>396c</t>
-  </si>
-  <si>
-    <t>403c</t>
-  </si>
-  <si>
-    <t>405c</t>
-  </si>
-  <si>
-    <t>406c</t>
-  </si>
-  <si>
-    <t>407c</t>
-  </si>
-  <si>
-    <t>413c</t>
-  </si>
-  <si>
-    <t>417c</t>
-  </si>
-  <si>
-    <t>419c</t>
-  </si>
-  <si>
-    <t>422c</t>
-  </si>
-  <si>
-    <t>423c</t>
-  </si>
-  <si>
-    <t>424c</t>
-  </si>
-  <si>
-    <t>429c</t>
-  </si>
-  <si>
-    <t>430b</t>
-  </si>
-  <si>
-    <t>430c</t>
+    <t>1_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9_a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9_b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>38_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>44_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>51_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>52_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>53_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>54_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>55_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>58_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>63_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>64_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>66_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>125_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>126_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>128_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>133_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>135_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>136_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>137_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>138_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>139_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>144_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>145_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>147_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>148_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>154_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>157_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>160_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>161_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>163_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>164_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>165_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>166_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>169_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>173_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>174_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>181_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>182_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>183_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>184_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>185_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>187_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>199_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>202_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>204_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>207_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>208_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>210_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>211_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>251_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>252_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>253_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>254_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>255_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>256_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>257_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>258_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>262_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>263_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>265_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>269_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>270_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>271_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>274_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>278_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>280_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>282_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>283_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>284_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>286_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>289_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>292_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>293_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>294_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>295_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>297_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>298_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>299_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>301_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>303_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>305_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>306_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>309_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>310_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>311_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>312_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>313_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>319_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>362_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>365_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>367_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>358_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>372_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>378_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>380_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>385_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>387_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>396_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>403_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>405_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>406_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>407_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>413_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>417_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>419_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>422_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>423_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>424_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>429_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>430_b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>430_c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,12 +689,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -555,9 +724,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -776,8 +946,8 @@
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:L1048576"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -790,7 +960,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -828,7 +998,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -866,7 +1036,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -904,7 +1074,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -942,7 +1112,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -980,7 +1150,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -1018,7 +1188,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -1056,7 +1226,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -1094,7 +1264,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -1132,7 +1302,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -1170,7 +1340,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -1208,7 +1378,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -1246,7 +1416,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -1284,7 +1454,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -1322,7 +1492,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -1360,7 +1530,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -1398,7 +1568,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -1436,7 +1606,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -1474,7 +1644,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -1509,7 +1679,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -1538,7 +1708,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -1567,7 +1737,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -1596,7 +1766,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1">
@@ -1625,7 +1795,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -1654,7 +1824,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1">
@@ -1683,7 +1853,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1">
@@ -1712,7 +1882,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1">
@@ -1741,7 +1911,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1">
@@ -1770,7 +1940,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1">
@@ -1799,7 +1969,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1">
@@ -1828,7 +1998,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -1857,7 +2027,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -1886,7 +2056,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="1">
@@ -1915,7 +2085,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -1944,7 +2114,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -1973,7 +2143,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -2002,7 +2172,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="1">
@@ -2031,7 +2201,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -2060,7 +2230,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="1">
@@ -2089,7 +2259,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -2118,7 +2288,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -2147,7 +2317,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="1">
@@ -2176,7 +2346,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="1">
@@ -2205,7 +2375,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="1">
@@ -2234,7 +2404,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="1">
@@ -2263,7 +2433,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="1">
@@ -2292,7 +2462,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="1">
@@ -2321,7 +2491,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="1">
@@ -2350,7 +2520,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="1">
@@ -2379,7 +2549,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="1">
@@ -2408,7 +2578,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="1">
@@ -2437,7 +2607,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="1">
@@ -2466,7 +2636,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="1">
@@ -2495,7 +2665,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="1">
@@ -2524,7 +2694,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="1">
@@ -2553,7 +2723,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="1">
@@ -2582,7 +2752,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="1">
@@ -2611,7 +2781,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="1">
@@ -2640,7 +2810,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="1">
@@ -2669,7 +2839,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="1">
@@ -2698,7 +2868,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="1">
@@ -2727,7 +2897,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="1">
@@ -2756,7 +2926,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="1">
@@ -2785,7 +2955,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="1">
@@ -2814,7 +2984,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="1">
@@ -2843,7 +3013,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="1">
@@ -2872,7 +3042,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="1">
@@ -2901,7 +3071,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="1">
@@ -2930,7 +3100,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="1">
@@ -2959,7 +3129,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="1">
@@ -2988,7 +3158,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="1">
@@ -3017,7 +3187,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="1">
@@ -3046,7 +3216,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="1">
@@ -3075,7 +3245,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="1">
@@ -3104,7 +3274,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="1">
@@ -3133,7 +3303,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="1">
@@ -3162,7 +3332,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="1">
@@ -3191,7 +3361,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="1">
@@ -3220,7 +3390,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="1">
@@ -3249,7 +3419,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B80" s="1">
@@ -3278,7 +3448,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="1">
@@ -3307,7 +3477,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="1">
@@ -3336,7 +3506,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="1">
@@ -3365,7 +3535,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="1">
@@ -3394,7 +3564,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="1">
@@ -3423,7 +3593,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="1">
@@ -3452,7 +3622,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B87" s="1">
@@ -3481,7 +3651,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="1">
@@ -3510,7 +3680,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="1">
@@ -3539,7 +3709,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B90" s="1">
@@ -3568,7 +3738,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="1">
@@ -3597,7 +3767,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B92" s="1">
@@ -3626,7 +3796,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="1">
@@ -3655,7 +3825,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B94" s="1">
@@ -3684,7 +3854,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="1">
@@ -3713,7 +3883,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B96" s="1">
@@ -3742,7 +3912,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B97" s="1">
@@ -3771,7 +3941,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B98" s="1">
@@ -3800,7 +3970,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B99" s="1">
@@ -3829,7 +3999,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B100" s="1">
@@ -3858,7 +4028,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B101" s="1">
@@ -3887,7 +4057,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B102" s="1">
@@ -3916,7 +4086,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B103" s="1">
@@ -3945,7 +4115,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B104" s="1">
@@ -3974,7 +4144,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B105" s="1">
@@ -4003,7 +4173,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B106" s="1">
@@ -4032,7 +4202,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B107" s="1">
@@ -4061,7 +4231,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B108" s="1">
@@ -4090,7 +4260,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B109" s="1">
@@ -4119,7 +4289,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="1">
@@ -4148,7 +4318,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B111" s="1">
@@ -4177,7 +4347,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B112" s="1">
@@ -4206,7 +4376,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B113" s="1">
@@ -4235,7 +4405,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B114" s="1">
@@ -4264,7 +4434,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B115" s="1">
@@ -4293,7 +4463,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B116" s="1">
@@ -4322,7 +4492,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B117" s="1">
@@ -4351,7 +4521,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B118" s="1">
@@ -4380,7 +4550,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B119" s="1">
@@ -4409,7 +4579,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B120" s="1">
@@ -4438,7 +4608,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B121" s="1">
@@ -4467,7 +4637,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B122" s="1">
@@ -4496,7 +4666,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B123" s="1">
@@ -4525,7 +4695,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B124" s="1">
@@ -4554,7 +4724,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B125" s="1">
@@ -4583,7 +4753,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B126" s="1">
@@ -4612,7 +4782,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B127" s="1">
@@ -4641,7 +4811,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B128" s="1">
@@ -4670,7 +4840,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B129" s="1">
@@ -4699,7 +4869,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B130" s="1">
@@ -4728,7 +4898,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B131" s="1">
@@ -4757,7 +4927,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B132" s="1">
@@ -4786,7 +4956,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B133" s="1">
@@ -4815,7 +4985,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B134" s="1">
@@ -4844,7 +5014,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B135" s="1">
@@ -4873,7 +5043,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B136" s="1">
@@ -4902,7 +5072,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B137" s="1">
@@ -4931,7 +5101,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B138" s="1">
@@ -4960,7 +5130,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B139" s="1">
@@ -4989,7 +5159,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B140" s="1">
@@ -5018,7 +5188,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B141" s="1">
@@ -5047,7 +5217,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B142" s="1">
@@ -5076,7 +5246,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B143" s="1">
@@ -5105,7 +5275,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B144" s="1">
@@ -5134,7 +5304,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B145" s="1">
@@ -5163,7 +5333,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B146" s="1">
@@ -5192,7 +5362,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B147" s="1">
@@ -5221,7 +5391,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B148" s="1">
@@ -5250,7 +5420,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B149" s="1">
@@ -5279,7 +5449,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B150" s="1">
@@ -5308,7 +5478,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B151" s="1">
@@ -5337,7 +5507,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B152" s="1">
@@ -5366,7 +5536,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B153" s="1">
@@ -5395,7 +5565,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B154" s="1">
@@ -5424,7 +5594,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B155" s="1">
@@ -5453,7 +5623,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B156" s="1">
@@ -5482,7 +5652,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B157" s="1">
@@ -5511,7 +5681,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B158" s="1">
@@ -5540,7 +5710,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B159" s="1">
@@ -5569,7 +5739,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B160" s="1">
@@ -5598,7 +5768,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B161" s="1">
@@ -5627,7 +5797,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B162" s="1">
